--- a/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Itga4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Mdk-Itga4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,55 +528,55 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H2">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J2">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.317727218227285</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N2">
-        <v>0.317727218227285</v>
+        <v>1.14273</v>
       </c>
       <c r="O2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P2">
-        <v>0.006115759881883679</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q2">
-        <v>0.3980102456659043</v>
+        <v>0.5043338548699998</v>
       </c>
       <c r="R2">
-        <v>0.3980102456659043</v>
+        <v>4.539004693829999</v>
       </c>
       <c r="S2">
-        <v>8.922843420429617E-05</v>
+        <v>0.0001007332388321083</v>
       </c>
       <c r="T2">
-        <v>8.922843420429617E-05</v>
+        <v>0.0001007332388321083</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,55 +590,55 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H3">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J3">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>50.3201449905407</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N3">
-        <v>50.3201449905407</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P3">
-        <v>0.968585334617363</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q3">
-        <v>63.03499392142764</v>
+        <v>0.4230008463915555</v>
       </c>
       <c r="R3">
-        <v>63.03499392142764</v>
+        <v>3.807007617524</v>
       </c>
       <c r="S3">
-        <v>0.01413158045284999</v>
+        <v>8.448817162339413E-05</v>
       </c>
       <c r="T3">
-        <v>0.01413158045284999</v>
+        <v>8.448817162339416E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.25267909965834</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H4">
-        <v>1.25267909965834</v>
+        <v>3.972071</v>
       </c>
       <c r="I4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J4">
-        <v>0.01458991783974577</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.31433395427447</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N4">
-        <v>1.31433395427447</v>
+        <v>164.082119</v>
       </c>
       <c r="O4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P4">
-        <v>0.02529890550075341</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q4">
-        <v>1.646438674490929</v>
+        <v>72.4162029442721</v>
       </c>
       <c r="R4">
-        <v>1.646438674490929</v>
+        <v>651.7458264984489</v>
       </c>
       <c r="S4">
-        <v>0.0003691089526914846</v>
+        <v>0.01446406699859583</v>
       </c>
       <c r="T4">
-        <v>0.0003691089526914846</v>
+        <v>0.01446406699859583</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>80.0823512563625</v>
+        <v>1.324023666666666</v>
       </c>
       <c r="H5">
-        <v>80.0823512563625</v>
+        <v>3.972071</v>
       </c>
       <c r="I5">
-        <v>0.9327168670433332</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="J5">
-        <v>0.9327168670433332</v>
+        <v>0.01518042398701374</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.317727218227285</v>
+        <v>2.008422</v>
       </c>
       <c r="N5">
-        <v>0.317727218227285</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P5">
-        <v>0.006115759881883679</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q5">
-        <v>25.44434269378438</v>
+        <v>2.659198260654</v>
       </c>
       <c r="R5">
-        <v>25.44434269378438</v>
+        <v>23.932784345886</v>
       </c>
       <c r="S5">
-        <v>0.00570427239661985</v>
+        <v>0.0005311355779624073</v>
       </c>
       <c r="T5">
-        <v>0.00570427239661985</v>
+        <v>0.0005311355779624074</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H6">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J6">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>50.3201449905407</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N6">
-        <v>50.3201449905407</v>
+        <v>1.14273</v>
       </c>
       <c r="O6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P6">
-        <v>0.968585334617363</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q6">
-        <v>4029.75552640357</v>
+        <v>30.92095407381999</v>
       </c>
       <c r="R6">
-        <v>4029.75552640357</v>
+        <v>278.28858666438</v>
       </c>
       <c r="S6">
-        <v>0.9034158787684253</v>
+        <v>0.006176003894161818</v>
       </c>
       <c r="T6">
-        <v>0.9034158787684253</v>
+        <v>0.006176003894161819</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>80.0823512563625</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H7">
-        <v>80.0823512563625</v>
+        <v>243.529606</v>
       </c>
       <c r="I7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J7">
-        <v>0.9327168670433332</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.31433395427447</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N7">
-        <v>1.31433395427447</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P7">
-        <v>0.02529890550075341</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q7">
-        <v>105.254953394372</v>
+        <v>25.93438774367378</v>
       </c>
       <c r="R7">
-        <v>105.254953394372</v>
+        <v>233.409489693064</v>
       </c>
       <c r="S7">
-        <v>0.02359671587828807</v>
+        <v>0.005180010918008656</v>
       </c>
       <c r="T7">
-        <v>0.02359671587828807</v>
+        <v>0.005180010918008657</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.12026610726167</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H8">
-        <v>1.12026610726167</v>
+        <v>243.529606</v>
       </c>
       <c r="I8">
-        <v>0.01304770748394977</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J8">
-        <v>0.01304770748394977</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.317727218227285</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N8">
-        <v>0.317727218227285</v>
+        <v>164.082119</v>
       </c>
       <c r="O8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P8">
-        <v>0.006115759881883679</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q8">
-        <v>0.3559390339345597</v>
+        <v>4439.872643523901</v>
       </c>
       <c r="R8">
-        <v>0.3559390339345597</v>
+        <v>39958.85379171511</v>
       </c>
       <c r="S8">
-        <v>7.979664598089346E-05</v>
+        <v>0.8867989865552869</v>
       </c>
       <c r="T8">
-        <v>7.979664598089346E-05</v>
+        <v>0.886798986555287</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.12026610726167</v>
+        <v>81.17653533333333</v>
       </c>
       <c r="H9">
-        <v>1.12026610726167</v>
+        <v>243.529606</v>
       </c>
       <c r="I9">
-        <v>0.01304770748394977</v>
+        <v>0.9307191821270077</v>
       </c>
       <c r="J9">
-        <v>0.01304770748394977</v>
+        <v>0.9307191821270075</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>50.3201449905407</v>
+        <v>2.008422</v>
       </c>
       <c r="N9">
-        <v>50.3201449905407</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P9">
-        <v>0.968585334617363</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q9">
-        <v>56.37195294539585</v>
+        <v>163.036739447244</v>
       </c>
       <c r="R9">
-        <v>56.37195294539585</v>
+        <v>1467.330655025196</v>
       </c>
       <c r="S9">
-        <v>0.01263781811933096</v>
+        <v>0.03256418075955021</v>
       </c>
       <c r="T9">
-        <v>0.01263781811933096</v>
+        <v>0.03256418075955021</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.12026610726167</v>
+        <v>1.192675</v>
       </c>
       <c r="H10">
-        <v>1.12026610726167</v>
+        <v>3.578025</v>
       </c>
       <c r="I10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J10">
-        <v>0.01304770748394977</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>1.31433395427447</v>
+        <v>0.3809099999999999</v>
       </c>
       <c r="N10">
-        <v>1.31433395427447</v>
+        <v>1.14273</v>
       </c>
       <c r="O10">
-        <v>0.02529890550075341</v>
+        <v>0.006635732896411959</v>
       </c>
       <c r="P10">
-        <v>0.02529890550075341</v>
+        <v>0.006635732896411961</v>
       </c>
       <c r="Q10">
-        <v>1.472403782596898</v>
+        <v>0.45430183425</v>
       </c>
       <c r="R10">
-        <v>1.472403782596898</v>
+        <v>4.088716508249999</v>
       </c>
       <c r="S10">
-        <v>0.0003300927186379184</v>
+        <v>9.074008165318652E-05</v>
       </c>
       <c r="T10">
-        <v>0.0003300927186379184</v>
+        <v>9.074008165318653E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1089,57 +1089,57 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.40393272619235</v>
+        <v>1.192675</v>
       </c>
       <c r="H11">
-        <v>3.40393272619235</v>
+        <v>3.578025</v>
       </c>
       <c r="I11">
-        <v>0.03964550763297121</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J11">
-        <v>0.03964550763297121</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.317727218227285</v>
+        <v>0.3194813333333333</v>
       </c>
       <c r="N11">
-        <v>0.317727218227285</v>
+        <v>0.9584440000000001</v>
       </c>
       <c r="O11">
-        <v>0.006115759881883679</v>
+        <v>0.005565600255676026</v>
       </c>
       <c r="P11">
-        <v>0.006115759881883679</v>
+        <v>0.005565600255676028</v>
       </c>
       <c r="Q11">
-        <v>1.081522076125914</v>
+        <v>0.3810373992333334</v>
       </c>
       <c r="R11">
-        <v>1.081522076125914</v>
+        <v>3.4293365931</v>
       </c>
       <c r="S11">
-        <v>0.0002424624050786385</v>
+        <v>7.610659282595776E-05</v>
       </c>
       <c r="T11">
-        <v>0.0002424624050786385</v>
+        <v>7.610659282595778E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1151,57 +1151,57 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.40393272619235</v>
+        <v>1.192675</v>
       </c>
       <c r="H12">
-        <v>3.40393272619235</v>
+        <v>3.578025</v>
       </c>
       <c r="I12">
-        <v>0.03964550763297121</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J12">
-        <v>0.03964550763297121</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>50.3201449905407</v>
+        <v>54.69403966666666</v>
       </c>
       <c r="N12">
-        <v>50.3201449905407</v>
+        <v>164.082119</v>
       </c>
       <c r="O12">
-        <v>0.968585334617363</v>
+        <v>0.9528104755815301</v>
       </c>
       <c r="P12">
-        <v>0.968585334617363</v>
+        <v>0.9528104755815303</v>
       </c>
       <c r="Q12">
-        <v>171.2863883200455</v>
+        <v>65.23221375944166</v>
       </c>
       <c r="R12">
-        <v>171.2863883200455</v>
+        <v>587.0899238349749</v>
       </c>
       <c r="S12">
-        <v>0.03840005727675663</v>
+        <v>0.01302917126170475</v>
       </c>
       <c r="T12">
-        <v>0.03840005727675663</v>
+        <v>0.01302917126170475</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.40393272619235</v>
+        <v>1.192675</v>
       </c>
       <c r="H13">
-        <v>3.40393272619235</v>
+        <v>3.578025</v>
       </c>
       <c r="I13">
-        <v>0.03964550763297121</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="J13">
-        <v>0.03964550763297121</v>
+        <v>0.0136744626508778</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.31433395427447</v>
+        <v>2.008422</v>
       </c>
       <c r="N13">
-        <v>1.31433395427447</v>
+        <v>6.025265999999999</v>
       </c>
       <c r="O13">
-        <v>0.02529890550075341</v>
+        <v>0.03498819126638183</v>
       </c>
       <c r="P13">
-        <v>0.02529890550075341</v>
+        <v>0.03498819126638184</v>
       </c>
       <c r="Q13">
-        <v>4.473904360100668</v>
+        <v>2.39539470885</v>
       </c>
       <c r="R13">
-        <v>4.473904360100668</v>
+        <v>21.55855237965</v>
       </c>
       <c r="S13">
-        <v>0.001002987951135937</v>
+        <v>0.0004784447146939073</v>
       </c>
       <c r="T13">
-        <v>0.001002987951135937</v>
+        <v>0.0004784447146939073</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>3.525915333333334</v>
+      </c>
+      <c r="H14">
+        <v>10.577746</v>
+      </c>
+      <c r="I14">
+        <v>0.04042593123510095</v>
+      </c>
+      <c r="J14">
+        <v>0.04042593123510094</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.3809099999999999</v>
+      </c>
+      <c r="N14">
+        <v>1.14273</v>
+      </c>
+      <c r="O14">
+        <v>0.006635732896411959</v>
+      </c>
+      <c r="P14">
+        <v>0.006635732896411961</v>
+      </c>
+      <c r="Q14">
+        <v>1.34305640962</v>
+      </c>
+      <c r="R14">
+        <v>12.08750768658</v>
+      </c>
+      <c r="S14">
+        <v>0.0002682556817648471</v>
+      </c>
+      <c r="T14">
+        <v>0.0002682556817648472</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>3.525915333333334</v>
+      </c>
+      <c r="H15">
+        <v>10.577746</v>
+      </c>
+      <c r="I15">
+        <v>0.04042593123510095</v>
+      </c>
+      <c r="J15">
+        <v>0.04042593123510094</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3194813333333333</v>
+      </c>
+      <c r="N15">
+        <v>0.9584440000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.005565600255676026</v>
+      </c>
+      <c r="P15">
+        <v>0.005565600255676028</v>
+      </c>
+      <c r="Q15">
+        <v>1.126464131913778</v>
+      </c>
+      <c r="R15">
+        <v>10.138177187224</v>
+      </c>
+      <c r="S15">
+        <v>0.0002249945732180193</v>
+      </c>
+      <c r="T15">
+        <v>0.0002249945732180193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>3.525915333333334</v>
+      </c>
+      <c r="H16">
+        <v>10.577746</v>
+      </c>
+      <c r="I16">
+        <v>0.04042593123510095</v>
+      </c>
+      <c r="J16">
+        <v>0.04042593123510094</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>54.69403966666666</v>
+      </c>
+      <c r="N16">
+        <v>164.082119</v>
+      </c>
+      <c r="O16">
+        <v>0.9528104755815301</v>
+      </c>
+      <c r="P16">
+        <v>0.9528104755815303</v>
+      </c>
+      <c r="Q16">
+        <v>192.8465531026416</v>
+      </c>
+      <c r="R16">
+        <v>1735.618977923774</v>
+      </c>
+      <c r="S16">
+        <v>0.03851825076594277</v>
+      </c>
+      <c r="T16">
+        <v>0.03851825076594277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>3.525915333333334</v>
+      </c>
+      <c r="H17">
+        <v>10.577746</v>
+      </c>
+      <c r="I17">
+        <v>0.04042593123510095</v>
+      </c>
+      <c r="J17">
+        <v>0.04042593123510094</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>2.008422</v>
+      </c>
+      <c r="N17">
+        <v>6.025265999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.03498819126638183</v>
+      </c>
+      <c r="P17">
+        <v>0.03498819126638184</v>
+      </c>
+      <c r="Q17">
+        <v>7.081525925604001</v>
+      </c>
+      <c r="R17">
+        <v>63.733733330436</v>
+      </c>
+      <c r="S17">
+        <v>0.001414430214175312</v>
+      </c>
+      <c r="T17">
+        <v>0.001414430214175312</v>
       </c>
     </row>
   </sheetData>
